--- a/pitcher_matchups_2025-08-18.xlsx
+++ b/pitcher_matchups_2025-08-18.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>StartTime</t>
   </si>
@@ -261,7 +261,18 @@
 Will Smith (C)</t>
   </si>
   <si>
+    <t>Austin Hedges (C)
+David Fry (1B)
+Gabriel Arias (SS)</t>
+  </si>
+  <si>
     <t>Alex Freeland (SS)</t>
+  </si>
+  <si>
+    <t>Angel Martínez (CF)
+Brayan Rocchio (SS)
+Carlos Santana (1B)
+José Ramírez (3B)</t>
   </si>
   <si>
     <t>Best Hitter/Pitcher Matchups for August 18, 2025</t>
@@ -778,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -786,7 +797,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -801,7 +812,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -812,10 +823,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -882,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,7 +916,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -942,7 +953,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
@@ -1009,10 +1020,10 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1020,10 +1031,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1038,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1046,7 +1057,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -1061,10 +1072,10 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1075,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1191,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1205,12 +1216,12 @@
     <col min="4" max="4" width="6.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1259,14 +1270,34 @@
         <v>74</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>75</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G3">
+  <conditionalFormatting sqref="A3:G4">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -1280,7 +1311,7 @@
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="C3:C4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1296,7 +1327,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="D3:D4">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/pitcher_matchups_2025-08-18.xlsx
+++ b/pitcher_matchups_2025-08-18.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>StartTime</t>
   </si>
@@ -249,6 +249,37 @@
   </si>
   <si>
     <t>Switch</t>
+  </si>
+  <si>
+    <t>Jarren Duran (LF)
+Masataka Yoshida (LF)
+Roman Anthony (RF)
+Wilyer Abreu (RF)</t>
+  </si>
+  <si>
+    <t>Andrew Benintendi (LF)
+Colson Montgomery (SS)
+Josh Rojas (3B)
+Kyle Teel (C)
+Mike Tauchman (RF)</t>
+  </si>
+  <si>
+    <t>Dalton Rushing (C)
+Freddie Freeman (1B)
+Michael Conforto (LF)
+Shohei Ohtani (TWP)</t>
+  </si>
+  <si>
+    <t>Niko Kavadas (OF)
+Nolan Schanuel (1B)</t>
+  </si>
+  <si>
+    <t>Alex Jackson (C)
+Coby Mayo (1B)
+Jeremiah Jackson (2B)
+Jordan Westburg (3B)
+Luis Vázquez (SS)
+Ryan Mountcastle (1B)</t>
   </si>
   <si>
     <t>Alex Call (RF)
@@ -266,7 +297,22 @@
 Gabriel Arias (SS)</t>
   </si>
   <si>
+    <t>Adley Rutschman (C)
+Dylan Carlson (LF)</t>
+  </si>
+  <si>
+    <t>Abraham Toro (1B)</t>
+  </si>
+  <si>
+    <t>Brooks Baldwin (LF)
+Edgar Quero (C)</t>
+  </si>
+  <si>
     <t>Alex Freeland (SS)</t>
+  </si>
+  <si>
+    <t>Luis Rengifo (3B)
+Yoán Moncada (3B)</t>
   </si>
   <si>
     <t>Angel Martínez (CF)
@@ -1186,7 +1232,7 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>8</formula>
+      <formula>7</formula>
       <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
@@ -1202,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1214,14 +1260,13 @@
     <col min="1" max="2" width="6.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="24.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1255,49 +1300,132 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>77</v>
+      <c r="F8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G4">
+  <conditionalFormatting sqref="A3:G8">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -1311,7 +1439,7 @@
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C4">
+  <conditionalFormatting sqref="C3:C8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1320,14 +1448,14 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>8</formula>
+      <formula>7</formula>
       <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
+  <conditionalFormatting sqref="D3:D8">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1336,7 +1464,7 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
-      <formula>8</formula>
+      <formula>7</formula>
       <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">

--- a/pitcher_matchups_2025-08-18.xlsx
+++ b/pitcher_matchups_2025-08-18.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>StartTime</t>
   </si>
@@ -249,37 +249,6 @@
   </si>
   <si>
     <t>Switch</t>
-  </si>
-  <si>
-    <t>Jarren Duran (LF)
-Masataka Yoshida (LF)
-Roman Anthony (RF)
-Wilyer Abreu (RF)</t>
-  </si>
-  <si>
-    <t>Andrew Benintendi (LF)
-Colson Montgomery (SS)
-Josh Rojas (3B)
-Kyle Teel (C)
-Mike Tauchman (RF)</t>
-  </si>
-  <si>
-    <t>Dalton Rushing (C)
-Freddie Freeman (1B)
-Michael Conforto (LF)
-Shohei Ohtani (TWP)</t>
-  </si>
-  <si>
-    <t>Niko Kavadas (OF)
-Nolan Schanuel (1B)</t>
-  </si>
-  <si>
-    <t>Alex Jackson (C)
-Coby Mayo (1B)
-Jeremiah Jackson (2B)
-Jordan Westburg (3B)
-Luis Vázquez (SS)
-Ryan Mountcastle (1B)</t>
   </si>
   <si>
     <t>Alex Call (RF)
@@ -297,22 +266,7 @@
 Gabriel Arias (SS)</t>
   </si>
   <si>
-    <t>Adley Rutschman (C)
-Dylan Carlson (LF)</t>
-  </si>
-  <si>
-    <t>Abraham Toro (1B)</t>
-  </si>
-  <si>
-    <t>Brooks Baldwin (LF)
-Edgar Quero (C)</t>
-  </si>
-  <si>
     <t>Alex Freeland (SS)</t>
-  </si>
-  <si>
-    <t>Luis Rengifo (3B)
-Yoán Moncada (3B)</t>
   </si>
   <si>
     <t>Angel Martínez (CF)
@@ -1232,7 +1186,7 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>7</formula>
+      <formula>8</formula>
       <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
@@ -1248,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1260,13 +1214,14 @@
     <col min="1" max="2" width="6.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1300,132 +1255,49 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G8">
+  <conditionalFormatting sqref="A3:G4">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -1439,7 +1311,7 @@
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C8">
+  <conditionalFormatting sqref="C3:C4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1448,14 +1320,14 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>7</formula>
+      <formula>8</formula>
       <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="D3:D4">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1464,7 +1336,7 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
-      <formula>7</formula>
+      <formula>8</formula>
       <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
